--- a/Code/Results/Cases/Case_3_144/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_144/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.034679796517981</v>
+        <v>1.058999066880645</v>
       </c>
       <c r="D2">
-        <v>1.052365196109125</v>
+        <v>1.065704068918184</v>
       </c>
       <c r="E2">
-        <v>1.046123030994482</v>
+        <v>1.065335469089387</v>
       </c>
       <c r="F2">
-        <v>1.05686846480068</v>
+        <v>1.076931002269229</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065056126031767</v>
+        <v>1.054039457981204</v>
       </c>
       <c r="J2">
-        <v>1.055870504979074</v>
+        <v>1.06398737435064</v>
       </c>
       <c r="K2">
-        <v>1.063140199780777</v>
+        <v>1.06841659283319</v>
       </c>
       <c r="L2">
-        <v>1.056975127345632</v>
+        <v>1.068048985894156</v>
       </c>
       <c r="M2">
-        <v>1.067588554262507</v>
+        <v>1.079613636321092</v>
       </c>
       <c r="N2">
-        <v>1.02168483094741</v>
+        <v>1.024993864333589</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.039831432830716</v>
+        <v>1.060068733111796</v>
       </c>
       <c r="D3">
-        <v>1.056520963730052</v>
+        <v>1.066584573063032</v>
       </c>
       <c r="E3">
-        <v>1.050497361359095</v>
+        <v>1.066289121326675</v>
       </c>
       <c r="F3">
-        <v>1.061594866540819</v>
+        <v>1.077967431960021</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067113084296815</v>
+        <v>1.054393713301809</v>
       </c>
       <c r="J3">
-        <v>1.059292159993958</v>
+        <v>1.064709550031878</v>
       </c>
       <c r="K3">
-        <v>1.066478332182575</v>
+        <v>1.069112384800285</v>
       </c>
       <c r="L3">
-        <v>1.060522452943057</v>
+        <v>1.068817671420381</v>
       </c>
       <c r="M3">
-        <v>1.071495922384154</v>
+        <v>1.080467128583135</v>
       </c>
       <c r="N3">
-        <v>1.022882601708926</v>
+        <v>1.025241999958958</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.043092038005808</v>
+        <v>1.06076106481599</v>
       </c>
       <c r="D4">
-        <v>1.059153727063932</v>
+        <v>1.067154460084713</v>
       </c>
       <c r="E4">
-        <v>1.053271263739565</v>
+        <v>1.066906676658377</v>
       </c>
       <c r="F4">
-        <v>1.064592342151027</v>
+        <v>1.078638676230948</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068404651104655</v>
+        <v>1.054621727879948</v>
       </c>
       <c r="J4">
-        <v>1.061454180208609</v>
+        <v>1.065176425676544</v>
       </c>
       <c r="K4">
-        <v>1.068587026232309</v>
+        <v>1.069562110045205</v>
       </c>
       <c r="L4">
-        <v>1.062766608502802</v>
+        <v>1.069314914694158</v>
       </c>
       <c r="M4">
-        <v>1.073969021824808</v>
+        <v>1.081019388133394</v>
       </c>
       <c r="N4">
-        <v>1.02363875080718</v>
+        <v>1.025402249670515</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.044446036822579</v>
+        <v>1.061052165666161</v>
       </c>
       <c r="D5">
-        <v>1.060247550925161</v>
+        <v>1.067394074038763</v>
       </c>
       <c r="E5">
-        <v>1.054424374389397</v>
+        <v>1.067166410985789</v>
       </c>
       <c r="F5">
-        <v>1.065838472659792</v>
+        <v>1.078921011665952</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068938469162234</v>
+        <v>1.054717294803244</v>
       </c>
       <c r="J5">
-        <v>1.062351072503418</v>
+        <v>1.065372599301814</v>
       </c>
       <c r="K5">
-        <v>1.06946165763498</v>
+        <v>1.069751054812806</v>
       </c>
       <c r="L5">
-        <v>1.063698227050885</v>
+        <v>1.069523920058818</v>
       </c>
       <c r="M5">
-        <v>1.074995963881325</v>
+        <v>1.081251555966278</v>
       </c>
       <c r="N5">
-        <v>1.023952259101137</v>
+        <v>1.02546954408151</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.044672415476053</v>
+        <v>1.061101045396643</v>
       </c>
       <c r="D6">
-        <v>1.060430460726283</v>
+        <v>1.067434308221991</v>
       </c>
       <c r="E6">
-        <v>1.054617236457087</v>
+        <v>1.067210028196548</v>
       </c>
       <c r="F6">
-        <v>1.066046897530249</v>
+        <v>1.078968425478181</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0690275705042</v>
+        <v>1.054733323875559</v>
       </c>
       <c r="J6">
-        <v>1.062500971888011</v>
+        <v>1.065405531792273</v>
       </c>
       <c r="K6">
-        <v>1.069607828141188</v>
+        <v>1.069782772440115</v>
       </c>
       <c r="L6">
-        <v>1.063853968675771</v>
+        <v>1.069559010874978</v>
       </c>
       <c r="M6">
-        <v>1.075167657646834</v>
+        <v>1.081290537833267</v>
       </c>
       <c r="N6">
-        <v>1.024004645940914</v>
+        <v>1.025480838730679</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.043110195184699</v>
+        <v>1.060764954344474</v>
       </c>
       <c r="D7">
-        <v>1.059168393206268</v>
+        <v>1.067157661687325</v>
       </c>
       <c r="E7">
-        <v>1.053286722237624</v>
+        <v>1.066910146793595</v>
       </c>
       <c r="F7">
-        <v>1.064609047340108</v>
+        <v>1.078642448244277</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068411819625489</v>
+        <v>1.054623005991166</v>
       </c>
       <c r="J7">
-        <v>1.061466211205897</v>
+        <v>1.065179047354912</v>
       </c>
       <c r="K7">
-        <v>1.068598759178522</v>
+        <v>1.069564635205296</v>
       </c>
       <c r="L7">
-        <v>1.062779102740605</v>
+        <v>1.069317707574818</v>
       </c>
       <c r="M7">
-        <v>1.073982793361528</v>
+        <v>1.081022490380019</v>
       </c>
       <c r="N7">
-        <v>1.023642956931486</v>
+        <v>1.025403149154978</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.036436321595518</v>
+        <v>1.059360527077663</v>
       </c>
       <c r="D8">
-        <v>1.053781615759723</v>
+        <v>1.066001609699896</v>
       </c>
       <c r="E8">
-        <v>1.047613386653519</v>
+        <v>1.06565766093481</v>
       </c>
       <c r="F8">
-        <v>1.05847871043824</v>
+        <v>1.077281142983803</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065759621800335</v>
+        <v>1.054159431133415</v>
       </c>
       <c r="J8">
-        <v>1.057037908330107</v>
+        <v>1.064231523867485</v>
       </c>
       <c r="K8">
-        <v>1.064279218424241</v>
+        <v>1.068651842037631</v>
       </c>
       <c r="L8">
-        <v>1.058184832643633</v>
+        <v>1.068308797126121</v>
       </c>
       <c r="M8">
-        <v>1.06892079617907</v>
+        <v>1.079902079237018</v>
       </c>
       <c r="N8">
-        <v>1.022093624203476</v>
+        <v>1.025077787126338</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.024085559942822</v>
+        <v>1.056887170031495</v>
       </c>
       <c r="D9">
-        <v>1.043834942278103</v>
+        <v>1.063965609022504</v>
       </c>
       <c r="E9">
-        <v>1.037158606548312</v>
+        <v>1.063454308018611</v>
       </c>
       <c r="F9">
-        <v>1.047184012507267</v>
+        <v>1.0748870035212</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060770701816489</v>
+        <v>1.053333275911329</v>
       </c>
       <c r="J9">
-        <v>1.048815552684167</v>
+        <v>1.062558659094076</v>
       </c>
       <c r="K9">
-        <v>1.056254722542345</v>
+        <v>1.06703957925276</v>
       </c>
       <c r="L9">
-        <v>1.049676265348091</v>
+        <v>1.066529852605119</v>
       </c>
       <c r="M9">
-        <v>1.059555289282111</v>
+        <v>1.077927735432594</v>
       </c>
       <c r="N9">
-        <v>1.019211882519721</v>
+        <v>1.024502087452323</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.01540565356319</v>
+        <v>1.055239216141092</v>
       </c>
       <c r="D10">
-        <v>1.036863300962245</v>
+        <v>1.062609051428427</v>
       </c>
       <c r="E10">
-        <v>1.029844664345054</v>
+        <v>1.061987912623595</v>
       </c>
       <c r="F10">
-        <v>1.039283628319999</v>
+        <v>1.073294065975983</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057212453983461</v>
+        <v>1.052776277491131</v>
       </c>
       <c r="J10">
-        <v>1.043021100683762</v>
+        <v>1.061441273350205</v>
       </c>
       <c r="K10">
-        <v>1.050597415856309</v>
+        <v>1.065962197361694</v>
       </c>
       <c r="L10">
-        <v>1.043695190869949</v>
+        <v>1.065343158633701</v>
       </c>
       <c r="M10">
-        <v>1.052978068107029</v>
+        <v>1.076611503385702</v>
       </c>
       <c r="N10">
-        <v>1.017178341271516</v>
+        <v>1.024116705374987</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.01152931931433</v>
+        <v>1.054525857144981</v>
       </c>
       <c r="D11">
-        <v>1.033755182170566</v>
+        <v>1.062021836664393</v>
       </c>
       <c r="E11">
-        <v>1.026587129030855</v>
+        <v>1.061353546857765</v>
       </c>
       <c r="F11">
-        <v>1.035765084345608</v>
+        <v>1.072605059612632</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05561163253897</v>
+        <v>1.052533615258268</v>
       </c>
       <c r="J11">
-        <v>1.040430208111814</v>
+        <v>1.0609569270653</v>
       </c>
       <c r="K11">
-        <v>1.048067415837828</v>
+        <v>1.065495079808368</v>
       </c>
       <c r="L11">
-        <v>1.041024484527467</v>
+        <v>1.064829137034378</v>
       </c>
       <c r="M11">
-        <v>1.050042636158492</v>
+        <v>1.07604156355181</v>
       </c>
       <c r="N11">
-        <v>1.016268581500564</v>
+        <v>1.023949457553781</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.010070644666513</v>
+        <v>1.054260915982127</v>
       </c>
       <c r="D12">
-        <v>1.032586469816937</v>
+        <v>1.061803746909199</v>
       </c>
       <c r="E12">
-        <v>1.025362704200827</v>
+        <v>1.061118004607151</v>
       </c>
       <c r="F12">
-        <v>1.034442573008978</v>
+        <v>1.072349244360364</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055007528659298</v>
+        <v>1.052443257664677</v>
       </c>
       <c r="J12">
-        <v>1.039454828456263</v>
+        <v>1.060776942630721</v>
       </c>
       <c r="K12">
-        <v>1.04711490578201</v>
+        <v>1.065321480965155</v>
       </c>
       <c r="L12">
-        <v>1.040019608725247</v>
+        <v>1.064638180381657</v>
       </c>
       <c r="M12">
-        <v>1.048938375187519</v>
+        <v>1.075829862343568</v>
       </c>
       <c r="N12">
-        <v>1.015926027747899</v>
+        <v>1.023887278096162</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.010384406509021</v>
+        <v>1.054317745311844</v>
       </c>
       <c r="D13">
-        <v>1.03283781945002</v>
+        <v>1.061850526631152</v>
       </c>
       <c r="E13">
-        <v>1.025626014517113</v>
+        <v>1.061168525166803</v>
       </c>
       <c r="F13">
-        <v>1.034726975872953</v>
+        <v>1.072404112509761</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055137548137985</v>
+        <v>1.052462649721934</v>
       </c>
       <c r="J13">
-        <v>1.039664651288048</v>
+        <v>1.060815553370325</v>
       </c>
       <c r="K13">
-        <v>1.047319811206925</v>
+        <v>1.065358722602734</v>
       </c>
       <c r="L13">
-        <v>1.040235751765193</v>
+        <v>1.064679142411885</v>
       </c>
       <c r="M13">
-        <v>1.049175885477543</v>
+        <v>1.075875272975782</v>
       </c>
       <c r="N13">
-        <v>1.015999720168351</v>
+        <v>1.023900618340374</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.01140913577925</v>
+        <v>1.054503956372119</v>
       </c>
       <c r="D14">
-        <v>1.033658870913533</v>
+        <v>1.062003808724821</v>
       </c>
       <c r="E14">
-        <v>1.026486217095848</v>
+        <v>1.061334075035383</v>
       </c>
       <c r="F14">
-        <v>1.035656088173204</v>
+        <v>1.072583911549659</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055561893465524</v>
+        <v>1.052526150800538</v>
       </c>
       <c r="J14">
-        <v>1.040349852557659</v>
+        <v>1.060942051059045</v>
       </c>
       <c r="K14">
-        <v>1.047988945411776</v>
+        <v>1.065480731920751</v>
       </c>
       <c r="L14">
-        <v>1.040941687741873</v>
+        <v>1.064813353030117</v>
       </c>
       <c r="M14">
-        <v>1.049951646059756</v>
+        <v>1.07602406426621</v>
       </c>
       <c r="N14">
-        <v>1.016240361763117</v>
+        <v>1.023944318925428</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.012037974852692</v>
+        <v>1.05461869140059</v>
       </c>
       <c r="D15">
-        <v>1.034162838893495</v>
+        <v>1.062098254596815</v>
       </c>
       <c r="E15">
-        <v>1.027014278191646</v>
+        <v>1.061436087634841</v>
       </c>
       <c r="F15">
-        <v>1.036226453966168</v>
+        <v>1.07269470657377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055822075011228</v>
+        <v>1.052565246490614</v>
       </c>
       <c r="J15">
-        <v>1.040770281996757</v>
+        <v>1.061019980304884</v>
       </c>
       <c r="K15">
-        <v>1.048399509496043</v>
+        <v>1.065555893890105</v>
       </c>
       <c r="L15">
-        <v>1.041374912456512</v>
+        <v>1.064896041162912</v>
       </c>
       <c r="M15">
-        <v>1.050427750310961</v>
+        <v>1.076115739474214</v>
       </c>
       <c r="N15">
-        <v>1.016388008236158</v>
+        <v>1.023971236859451</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.015660335851335</v>
+        <v>1.055286563950925</v>
       </c>
       <c r="D16">
-        <v>1.037067627605372</v>
+        <v>1.062648026838395</v>
       </c>
       <c r="E16">
-        <v>1.030058879309872</v>
+        <v>1.062030025914735</v>
       </c>
       <c r="F16">
-        <v>1.039515010375913</v>
+        <v>1.073339808803866</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057317390898205</v>
+        <v>1.05279235104398</v>
       </c>
       <c r="J16">
-        <v>1.043191265831685</v>
+        <v>1.061473407062351</v>
       </c>
       <c r="K16">
-        <v>1.050763573605238</v>
+        <v>1.065993185702507</v>
       </c>
       <c r="L16">
-        <v>1.043870674013378</v>
+        <v>1.065377268877583</v>
       </c>
       <c r="M16">
-        <v>1.053170976001346</v>
+        <v>1.07664932837821</v>
       </c>
       <c r="N16">
-        <v>1.017238083441432</v>
+        <v>1.024127797177019</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.017900224022698</v>
+        <v>1.055705560344305</v>
       </c>
       <c r="D17">
-        <v>1.038865260919928</v>
+        <v>1.06299293386103</v>
       </c>
       <c r="E17">
-        <v>1.031943870324064</v>
+        <v>1.06240274673353</v>
       </c>
       <c r="F17">
-        <v>1.041551083869853</v>
+        <v>1.073744664350989</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058238964108184</v>
+        <v>1.052934412000013</v>
       </c>
       <c r="J17">
-        <v>1.044687486579092</v>
+        <v>1.061757692976723</v>
       </c>
       <c r="K17">
-        <v>1.052224510651583</v>
+        <v>1.066267325693216</v>
       </c>
       <c r="L17">
-        <v>1.045414067643442</v>
+        <v>1.065679083515465</v>
       </c>
       <c r="M17">
-        <v>1.054867789166125</v>
+        <v>1.076984034042821</v>
       </c>
       <c r="N17">
-        <v>1.017763327068346</v>
+        <v>1.024225903075328</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.019195419826915</v>
+        <v>1.055949974704631</v>
       </c>
       <c r="D18">
-        <v>1.039905225670696</v>
+        <v>1.063194129984643</v>
       </c>
       <c r="E18">
-        <v>1.033034676082016</v>
+        <v>1.06262020568613</v>
       </c>
       <c r="F18">
-        <v>1.042729336052394</v>
+        <v>1.073980881710499</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058770738693599</v>
+        <v>1.053017131119628</v>
       </c>
       <c r="J18">
-        <v>1.045552359589912</v>
+        <v>1.061923462841388</v>
       </c>
       <c r="K18">
-        <v>1.05306894695687</v>
+        <v>1.066427168614698</v>
       </c>
       <c r="L18">
-        <v>1.046306551728198</v>
+        <v>1.065855109962765</v>
       </c>
       <c r="M18">
-        <v>1.055849129002683</v>
+        <v>1.07717926192131</v>
       </c>
       <c r="N18">
-        <v>1.018066890234582</v>
+        <v>1.024283090409739</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.019635165229533</v>
+        <v>1.056033317231716</v>
       </c>
       <c r="D19">
-        <v>1.040258397241242</v>
+        <v>1.063262735653274</v>
       </c>
       <c r="E19">
-        <v>1.033405164858666</v>
+        <v>1.062694363262225</v>
       </c>
       <c r="F19">
-        <v>1.043129529027784</v>
+        <v>1.074061437923834</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058951095932019</v>
+        <v>1.053045312007224</v>
       </c>
       <c r="J19">
-        <v>1.04584594852869</v>
+        <v>1.06197997771644</v>
       </c>
       <c r="K19">
-        <v>1.05335559115818</v>
+        <v>1.066481661026837</v>
       </c>
       <c r="L19">
-        <v>1.046609571584687</v>
+        <v>1.0659151275559</v>
       </c>
       <c r="M19">
-        <v>1.056182341170695</v>
+        <v>1.077245829529655</v>
       </c>
       <c r="N19">
-        <v>1.018169928993379</v>
+        <v>1.024302583672393</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.017661081134506</v>
+        <v>1.055660603841823</v>
       </c>
       <c r="D20">
-        <v>1.038673283273966</v>
+        <v>1.062955926768906</v>
       </c>
       <c r="E20">
-        <v>1.031742531965925</v>
+        <v>1.062362751397619</v>
       </c>
       <c r="F20">
-        <v>1.041333606372309</v>
+        <v>1.073701219736035</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058140687388976</v>
+        <v>1.052919184956602</v>
       </c>
       <c r="J20">
-        <v>1.044527772874077</v>
+        <v>1.061727196887066</v>
       </c>
       <c r="K20">
-        <v>1.052068567519547</v>
+        <v>1.066237919095267</v>
       </c>
       <c r="L20">
-        <v>1.045249282807987</v>
+        <v>1.065646703410316</v>
       </c>
       <c r="M20">
-        <v>1.054686609609826</v>
+        <v>1.076948123319157</v>
       </c>
       <c r="N20">
-        <v>1.017707264940254</v>
+        <v>1.024215380981711</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.011107907858701</v>
+        <v>1.054449120971543</v>
       </c>
       <c r="D21">
-        <v>1.033417490919804</v>
+        <v>1.061958670194081</v>
       </c>
       <c r="E21">
-        <v>1.026233314215474</v>
+        <v>1.061285322253662</v>
       </c>
       <c r="F21">
-        <v>1.035382925081661</v>
+        <v>1.072530962108912</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055437200136851</v>
+        <v>1.052507457444445</v>
       </c>
       <c r="J21">
-        <v>1.040148442888435</v>
+        <v>1.060904802757967</v>
       </c>
       <c r="K21">
-        <v>1.047792259941936</v>
+        <v>1.065444805716813</v>
       </c>
       <c r="L21">
-        <v>1.040734168062651</v>
+        <v>1.064773832068325</v>
       </c>
       <c r="M21">
-        <v>1.049723594418532</v>
+        <v>1.07598024894279</v>
       </c>
       <c r="N21">
-        <v>1.016169628586277</v>
+        <v>1.023931451741739</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.006878090565426</v>
+        <v>1.053687599356303</v>
       </c>
       <c r="D22">
-        <v>1.030030260867973</v>
+        <v>1.061331817319192</v>
       </c>
       <c r="E22">
-        <v>1.02268549791086</v>
+        <v>1.060608417424814</v>
       </c>
       <c r="F22">
-        <v>1.031550928377436</v>
+        <v>1.071795825087621</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053682262507742</v>
+        <v>1.052247303413965</v>
       </c>
       <c r="J22">
-        <v>1.037319337826093</v>
+        <v>1.060387287453033</v>
       </c>
       <c r="K22">
-        <v>1.045029397648792</v>
+        <v>1.064945619843801</v>
       </c>
       <c r="L22">
-        <v>1.037820559677575</v>
+        <v>1.06422487204633</v>
       </c>
       <c r="M22">
-        <v>1.046522237952559</v>
+        <v>1.075371706993879</v>
       </c>
       <c r="N22">
-        <v>1.01517594468023</v>
+        <v>1.023752609248862</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.009131182319628</v>
+        <v>1.054091278867785</v>
       </c>
       <c r="D23">
-        <v>1.031834016999913</v>
+        <v>1.061664108418495</v>
       </c>
       <c r="E23">
-        <v>1.024574513665694</v>
+        <v>1.06096720830518</v>
       </c>
       <c r="F23">
-        <v>1.033591246563044</v>
+        <v>1.072185473382754</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054617979468976</v>
+        <v>1.052385337734792</v>
       </c>
       <c r="J23">
-        <v>1.038826522073816</v>
+        <v>1.060661674111661</v>
       </c>
       <c r="K23">
-        <v>1.046501317248829</v>
+        <v>1.065210297332685</v>
       </c>
       <c r="L23">
-        <v>1.039372457908836</v>
+        <v>1.064515900405485</v>
       </c>
       <c r="M23">
-        <v>1.04822728119492</v>
+        <v>1.075694306606273</v>
       </c>
       <c r="N23">
-        <v>1.015705350690842</v>
+        <v>1.023847447787282</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.017769174328428</v>
+        <v>1.055680917685542</v>
       </c>
       <c r="D24">
-        <v>1.03876005611687</v>
+        <v>1.062972648626164</v>
       </c>
       <c r="E24">
-        <v>1.031833534859389</v>
+        <v>1.062380823391523</v>
       </c>
       <c r="F24">
-        <v>1.041431903936252</v>
+        <v>1.073720850265035</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058185112185013</v>
+        <v>1.052926065842726</v>
       </c>
       <c r="J24">
-        <v>1.044599964820887</v>
+        <v>1.061740976909529</v>
       </c>
       <c r="K24">
-        <v>1.052139055264558</v>
+        <v>1.066251206851139</v>
       </c>
       <c r="L24">
-        <v>1.04532376588403</v>
+        <v>1.065661334638266</v>
       </c>
       <c r="M24">
-        <v>1.054768502700636</v>
+        <v>1.076964349830187</v>
       </c>
       <c r="N24">
-        <v>1.01773260564607</v>
+        <v>1.024220135574663</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.027353336246494</v>
+        <v>1.05752642409519</v>
       </c>
       <c r="D25">
-        <v>1.046463701099801</v>
+        <v>1.064491829350048</v>
       </c>
       <c r="E25">
-        <v>1.039919239404154</v>
+        <v>1.064023487781688</v>
       </c>
       <c r="F25">
-        <v>1.05016620445416</v>
+        <v>1.075505391710808</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06209982854854</v>
+        <v>1.053547955289997</v>
       </c>
       <c r="J25">
-        <v>1.050993959857553</v>
+        <v>1.062991513398818</v>
       </c>
       <c r="K25">
-        <v>1.058381138200176</v>
+        <v>1.067456836846794</v>
       </c>
       <c r="L25">
-        <v>1.051927927422156</v>
+        <v>1.066989882636213</v>
       </c>
       <c r="M25">
-        <v>1.062032651303259</v>
+        <v>1.078438152712101</v>
       </c>
       <c r="N25">
-        <v>1.019975878140488</v>
+        <v>1.024651199336978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_144/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_144/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058999066880645</v>
+        <v>1.034679796517981</v>
       </c>
       <c r="D2">
-        <v>1.065704068918184</v>
+        <v>1.052365196109124</v>
       </c>
       <c r="E2">
-        <v>1.065335469089387</v>
+        <v>1.046123030994482</v>
       </c>
       <c r="F2">
-        <v>1.076931002269229</v>
+        <v>1.05686846480068</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054039457981204</v>
+        <v>1.065056126031767</v>
       </c>
       <c r="J2">
-        <v>1.06398737435064</v>
+        <v>1.055870504979073</v>
       </c>
       <c r="K2">
-        <v>1.06841659283319</v>
+        <v>1.063140199780776</v>
       </c>
       <c r="L2">
-        <v>1.068048985894156</v>
+        <v>1.056975127345632</v>
       </c>
       <c r="M2">
-        <v>1.079613636321092</v>
+        <v>1.067588554262506</v>
       </c>
       <c r="N2">
-        <v>1.024993864333589</v>
+        <v>1.021684830947409</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.060068733111796</v>
+        <v>1.039831432830715</v>
       </c>
       <c r="D3">
-        <v>1.066584573063032</v>
+        <v>1.056520963730051</v>
       </c>
       <c r="E3">
-        <v>1.066289121326675</v>
+        <v>1.050497361359094</v>
       </c>
       <c r="F3">
-        <v>1.077967431960021</v>
+        <v>1.061594866540817</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054393713301809</v>
+        <v>1.067113084296815</v>
       </c>
       <c r="J3">
-        <v>1.064709550031878</v>
+        <v>1.059292159993957</v>
       </c>
       <c r="K3">
-        <v>1.069112384800285</v>
+        <v>1.066478332182573</v>
       </c>
       <c r="L3">
-        <v>1.068817671420381</v>
+        <v>1.060522452943056</v>
       </c>
       <c r="M3">
-        <v>1.080467128583135</v>
+        <v>1.071495922384153</v>
       </c>
       <c r="N3">
-        <v>1.025241999958958</v>
+        <v>1.022882601708926</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.06076106481599</v>
+        <v>1.043092038005809</v>
       </c>
       <c r="D4">
-        <v>1.067154460084713</v>
+        <v>1.059153727063932</v>
       </c>
       <c r="E4">
-        <v>1.066906676658377</v>
+        <v>1.053271263739566</v>
       </c>
       <c r="F4">
-        <v>1.078638676230948</v>
+        <v>1.064592342151027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054621727879948</v>
+        <v>1.068404651104656</v>
       </c>
       <c r="J4">
-        <v>1.065176425676544</v>
+        <v>1.06145418020861</v>
       </c>
       <c r="K4">
-        <v>1.069562110045205</v>
+        <v>1.068587026232309</v>
       </c>
       <c r="L4">
-        <v>1.069314914694158</v>
+        <v>1.062766608502802</v>
       </c>
       <c r="M4">
-        <v>1.081019388133394</v>
+        <v>1.073969021824808</v>
       </c>
       <c r="N4">
-        <v>1.025402249670515</v>
+        <v>1.02363875080718</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.061052165666161</v>
+        <v>1.04444603682258</v>
       </c>
       <c r="D5">
-        <v>1.067394074038763</v>
+        <v>1.060247550925162</v>
       </c>
       <c r="E5">
-        <v>1.067166410985789</v>
+        <v>1.054424374389398</v>
       </c>
       <c r="F5">
-        <v>1.078921011665952</v>
+        <v>1.065838472659794</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054717294803244</v>
+        <v>1.068938469162234</v>
       </c>
       <c r="J5">
-        <v>1.065372599301814</v>
+        <v>1.062351072503418</v>
       </c>
       <c r="K5">
-        <v>1.069751054812806</v>
+        <v>1.06946165763498</v>
       </c>
       <c r="L5">
-        <v>1.069523920058818</v>
+        <v>1.063698227050886</v>
       </c>
       <c r="M5">
-        <v>1.081251555966278</v>
+        <v>1.074995963881326</v>
       </c>
       <c r="N5">
-        <v>1.02546954408151</v>
+        <v>1.023952259101137</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.061101045396643</v>
+        <v>1.044672415476054</v>
       </c>
       <c r="D6">
-        <v>1.067434308221991</v>
+        <v>1.060430460726284</v>
       </c>
       <c r="E6">
-        <v>1.067210028196548</v>
+        <v>1.054617236457088</v>
       </c>
       <c r="F6">
-        <v>1.078968425478181</v>
+        <v>1.06604689753025</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054733323875559</v>
+        <v>1.0690275705042</v>
       </c>
       <c r="J6">
-        <v>1.065405531792273</v>
+        <v>1.062500971888012</v>
       </c>
       <c r="K6">
-        <v>1.069782772440115</v>
+        <v>1.069607828141189</v>
       </c>
       <c r="L6">
-        <v>1.069559010874978</v>
+        <v>1.063853968675772</v>
       </c>
       <c r="M6">
-        <v>1.081290537833267</v>
+        <v>1.075167657646835</v>
       </c>
       <c r="N6">
-        <v>1.025480838730679</v>
+        <v>1.024004645940914</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060764954344474</v>
+        <v>1.043110195184699</v>
       </c>
       <c r="D7">
-        <v>1.067157661687325</v>
+        <v>1.059168393206267</v>
       </c>
       <c r="E7">
-        <v>1.066910146793595</v>
+        <v>1.053286722237624</v>
       </c>
       <c r="F7">
-        <v>1.078642448244277</v>
+        <v>1.064609047340108</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054623005991166</v>
+        <v>1.068411819625489</v>
       </c>
       <c r="J7">
-        <v>1.065179047354912</v>
+        <v>1.061466211205896</v>
       </c>
       <c r="K7">
-        <v>1.069564635205296</v>
+        <v>1.068598759178521</v>
       </c>
       <c r="L7">
-        <v>1.069317707574818</v>
+        <v>1.062779102740604</v>
       </c>
       <c r="M7">
-        <v>1.081022490380019</v>
+        <v>1.073982793361527</v>
       </c>
       <c r="N7">
-        <v>1.025403149154978</v>
+        <v>1.023642956931486</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.059360527077663</v>
+        <v>1.036436321595519</v>
       </c>
       <c r="D8">
-        <v>1.066001609699896</v>
+        <v>1.053781615759724</v>
       </c>
       <c r="E8">
-        <v>1.06565766093481</v>
+        <v>1.04761338665352</v>
       </c>
       <c r="F8">
-        <v>1.077281142983803</v>
+        <v>1.058478710438242</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054159431133415</v>
+        <v>1.065759621800335</v>
       </c>
       <c r="J8">
-        <v>1.064231523867485</v>
+        <v>1.057037908330108</v>
       </c>
       <c r="K8">
-        <v>1.068651842037631</v>
+        <v>1.064279218424242</v>
       </c>
       <c r="L8">
-        <v>1.068308797126121</v>
+        <v>1.058184832643634</v>
       </c>
       <c r="M8">
-        <v>1.079902079237018</v>
+        <v>1.068920796179071</v>
       </c>
       <c r="N8">
-        <v>1.025077787126338</v>
+        <v>1.022093624203477</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.056887170031495</v>
+        <v>1.024085559942821</v>
       </c>
       <c r="D9">
-        <v>1.063965609022504</v>
+        <v>1.043834942278102</v>
       </c>
       <c r="E9">
-        <v>1.063454308018611</v>
+        <v>1.03715860654831</v>
       </c>
       <c r="F9">
-        <v>1.0748870035212</v>
+        <v>1.047184012507265</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053333275911329</v>
+        <v>1.060770701816488</v>
       </c>
       <c r="J9">
-        <v>1.062558659094076</v>
+        <v>1.048815552684166</v>
       </c>
       <c r="K9">
-        <v>1.06703957925276</v>
+        <v>1.056254722542344</v>
       </c>
       <c r="L9">
-        <v>1.066529852605119</v>
+        <v>1.049676265348089</v>
       </c>
       <c r="M9">
-        <v>1.077927735432594</v>
+        <v>1.05955528928211</v>
       </c>
       <c r="N9">
-        <v>1.024502087452323</v>
+        <v>1.019211882519721</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055239216141092</v>
+        <v>1.015405653563189</v>
       </c>
       <c r="D10">
-        <v>1.062609051428427</v>
+        <v>1.036863300962244</v>
       </c>
       <c r="E10">
-        <v>1.061987912623595</v>
+        <v>1.029844664345053</v>
       </c>
       <c r="F10">
-        <v>1.073294065975983</v>
+        <v>1.039283628319998</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052776277491131</v>
+        <v>1.05721245398346</v>
       </c>
       <c r="J10">
-        <v>1.061441273350205</v>
+        <v>1.043021100683762</v>
       </c>
       <c r="K10">
-        <v>1.065962197361694</v>
+        <v>1.050597415856308</v>
       </c>
       <c r="L10">
-        <v>1.065343158633701</v>
+        <v>1.043695190869949</v>
       </c>
       <c r="M10">
-        <v>1.076611503385702</v>
+        <v>1.052978068107028</v>
       </c>
       <c r="N10">
-        <v>1.024116705374987</v>
+        <v>1.017178341271516</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054525857144981</v>
+        <v>1.01152931931433</v>
       </c>
       <c r="D11">
-        <v>1.062021836664393</v>
+        <v>1.033755182170566</v>
       </c>
       <c r="E11">
-        <v>1.061353546857765</v>
+        <v>1.026587129030855</v>
       </c>
       <c r="F11">
-        <v>1.072605059612632</v>
+        <v>1.035765084345608</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052533615258268</v>
+        <v>1.05561163253897</v>
       </c>
       <c r="J11">
-        <v>1.0609569270653</v>
+        <v>1.040430208111813</v>
       </c>
       <c r="K11">
-        <v>1.065495079808368</v>
+        <v>1.048067415837828</v>
       </c>
       <c r="L11">
-        <v>1.064829137034378</v>
+        <v>1.041024484527466</v>
       </c>
       <c r="M11">
-        <v>1.07604156355181</v>
+        <v>1.050042636158491</v>
       </c>
       <c r="N11">
-        <v>1.023949457553781</v>
+        <v>1.016268581500564</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054260915982127</v>
+        <v>1.010070644666513</v>
       </c>
       <c r="D12">
-        <v>1.061803746909199</v>
+        <v>1.032586469816937</v>
       </c>
       <c r="E12">
-        <v>1.061118004607151</v>
+        <v>1.025362704200826</v>
       </c>
       <c r="F12">
-        <v>1.072349244360364</v>
+        <v>1.034442573008978</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052443257664677</v>
+        <v>1.055007528659298</v>
       </c>
       <c r="J12">
-        <v>1.060776942630721</v>
+        <v>1.039454828456262</v>
       </c>
       <c r="K12">
-        <v>1.065321480965155</v>
+        <v>1.04711490578201</v>
       </c>
       <c r="L12">
-        <v>1.064638180381657</v>
+        <v>1.040019608725246</v>
       </c>
       <c r="M12">
-        <v>1.075829862343568</v>
+        <v>1.048938375187518</v>
       </c>
       <c r="N12">
-        <v>1.023887278096162</v>
+        <v>1.015926027747899</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054317745311844</v>
+        <v>1.010384406509021</v>
       </c>
       <c r="D13">
-        <v>1.061850526631152</v>
+        <v>1.03283781945002</v>
       </c>
       <c r="E13">
-        <v>1.061168525166803</v>
+        <v>1.025626014517113</v>
       </c>
       <c r="F13">
-        <v>1.072404112509761</v>
+        <v>1.034726975872954</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052462649721934</v>
+        <v>1.055137548137986</v>
       </c>
       <c r="J13">
-        <v>1.060815553370325</v>
+        <v>1.039664651288048</v>
       </c>
       <c r="K13">
-        <v>1.065358722602734</v>
+        <v>1.047319811206926</v>
       </c>
       <c r="L13">
-        <v>1.064679142411885</v>
+        <v>1.040235751765193</v>
       </c>
       <c r="M13">
-        <v>1.075875272975782</v>
+        <v>1.049175885477543</v>
       </c>
       <c r="N13">
-        <v>1.023900618340374</v>
+        <v>1.015999720168351</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054503956372119</v>
+        <v>1.011409135779249</v>
       </c>
       <c r="D14">
-        <v>1.062003808724821</v>
+        <v>1.033658870913533</v>
       </c>
       <c r="E14">
-        <v>1.061334075035383</v>
+        <v>1.026486217095848</v>
       </c>
       <c r="F14">
-        <v>1.072583911549659</v>
+        <v>1.035656088173203</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052526150800538</v>
+        <v>1.055561893465524</v>
       </c>
       <c r="J14">
-        <v>1.060942051059045</v>
+        <v>1.040349852557658</v>
       </c>
       <c r="K14">
-        <v>1.065480731920751</v>
+        <v>1.047988945411775</v>
       </c>
       <c r="L14">
-        <v>1.064813353030117</v>
+        <v>1.040941687741873</v>
       </c>
       <c r="M14">
-        <v>1.07602406426621</v>
+        <v>1.049951646059755</v>
       </c>
       <c r="N14">
-        <v>1.023944318925428</v>
+        <v>1.016240361763117</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05461869140059</v>
+        <v>1.012037974852693</v>
       </c>
       <c r="D15">
-        <v>1.062098254596815</v>
+        <v>1.034162838893496</v>
       </c>
       <c r="E15">
-        <v>1.061436087634841</v>
+        <v>1.027014278191647</v>
       </c>
       <c r="F15">
-        <v>1.07269470657377</v>
+        <v>1.036226453966169</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052565246490614</v>
+        <v>1.055822075011229</v>
       </c>
       <c r="J15">
-        <v>1.061019980304884</v>
+        <v>1.040770281996758</v>
       </c>
       <c r="K15">
-        <v>1.065555893890105</v>
+        <v>1.048399509496044</v>
       </c>
       <c r="L15">
-        <v>1.064896041162912</v>
+        <v>1.041374912456513</v>
       </c>
       <c r="M15">
-        <v>1.076115739474214</v>
+        <v>1.050427750310962</v>
       </c>
       <c r="N15">
-        <v>1.023971236859451</v>
+        <v>1.016388008236158</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.055286563950925</v>
+        <v>1.015660335851336</v>
       </c>
       <c r="D16">
-        <v>1.062648026838395</v>
+        <v>1.037067627605373</v>
       </c>
       <c r="E16">
-        <v>1.062030025914735</v>
+        <v>1.030058879309872</v>
       </c>
       <c r="F16">
-        <v>1.073339808803866</v>
+        <v>1.039515010375914</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05279235104398</v>
+        <v>1.057317390898206</v>
       </c>
       <c r="J16">
-        <v>1.061473407062351</v>
+        <v>1.043191265831686</v>
       </c>
       <c r="K16">
-        <v>1.065993185702507</v>
+        <v>1.050763573605239</v>
       </c>
       <c r="L16">
-        <v>1.065377268877583</v>
+        <v>1.043870674013379</v>
       </c>
       <c r="M16">
-        <v>1.07664932837821</v>
+        <v>1.053170976001346</v>
       </c>
       <c r="N16">
-        <v>1.024127797177019</v>
+        <v>1.017238083441432</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.055705560344305</v>
+        <v>1.017900224022698</v>
       </c>
       <c r="D17">
-        <v>1.06299293386103</v>
+        <v>1.038865260919928</v>
       </c>
       <c r="E17">
-        <v>1.06240274673353</v>
+        <v>1.031943870324064</v>
       </c>
       <c r="F17">
-        <v>1.073744664350989</v>
+        <v>1.041551083869852</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052934412000013</v>
+        <v>1.058238964108183</v>
       </c>
       <c r="J17">
-        <v>1.061757692976723</v>
+        <v>1.044687486579092</v>
       </c>
       <c r="K17">
-        <v>1.066267325693216</v>
+        <v>1.052224510651582</v>
       </c>
       <c r="L17">
-        <v>1.065679083515465</v>
+        <v>1.045414067643442</v>
       </c>
       <c r="M17">
-        <v>1.076984034042821</v>
+        <v>1.054867789166125</v>
       </c>
       <c r="N17">
-        <v>1.024225903075328</v>
+        <v>1.017763327068346</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.055949974704631</v>
+        <v>1.019195419826915</v>
       </c>
       <c r="D18">
-        <v>1.063194129984643</v>
+        <v>1.039905225670695</v>
       </c>
       <c r="E18">
-        <v>1.06262020568613</v>
+        <v>1.033034676082016</v>
       </c>
       <c r="F18">
-        <v>1.073980881710499</v>
+        <v>1.042729336052393</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053017131119628</v>
+        <v>1.058770738693599</v>
       </c>
       <c r="J18">
-        <v>1.061923462841388</v>
+        <v>1.045552359589912</v>
       </c>
       <c r="K18">
-        <v>1.066427168614698</v>
+        <v>1.05306894695687</v>
       </c>
       <c r="L18">
-        <v>1.065855109962765</v>
+        <v>1.046306551728197</v>
       </c>
       <c r="M18">
-        <v>1.07717926192131</v>
+        <v>1.055849129002682</v>
       </c>
       <c r="N18">
-        <v>1.024283090409739</v>
+        <v>1.018066890234581</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056033317231716</v>
+        <v>1.019635165229532</v>
       </c>
       <c r="D19">
-        <v>1.063262735653274</v>
+        <v>1.04025839724124</v>
       </c>
       <c r="E19">
-        <v>1.062694363262225</v>
+        <v>1.033405164858664</v>
       </c>
       <c r="F19">
-        <v>1.074061437923834</v>
+        <v>1.043129529027782</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053045312007224</v>
+        <v>1.058951095932018</v>
       </c>
       <c r="J19">
-        <v>1.06197997771644</v>
+        <v>1.045845948528689</v>
       </c>
       <c r="K19">
-        <v>1.066481661026837</v>
+        <v>1.053355591158178</v>
       </c>
       <c r="L19">
-        <v>1.0659151275559</v>
+        <v>1.046609571584686</v>
       </c>
       <c r="M19">
-        <v>1.077245829529655</v>
+        <v>1.056182341170693</v>
       </c>
       <c r="N19">
-        <v>1.024302583672393</v>
+        <v>1.018169928993379</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.055660603841823</v>
+        <v>1.017661081134506</v>
       </c>
       <c r="D20">
-        <v>1.062955926768906</v>
+        <v>1.038673283273967</v>
       </c>
       <c r="E20">
-        <v>1.062362751397619</v>
+        <v>1.031742531965925</v>
       </c>
       <c r="F20">
-        <v>1.073701219736035</v>
+        <v>1.04133360637231</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052919184956602</v>
+        <v>1.058140687388976</v>
       </c>
       <c r="J20">
-        <v>1.061727196887066</v>
+        <v>1.044527772874078</v>
       </c>
       <c r="K20">
-        <v>1.066237919095267</v>
+        <v>1.052068567519547</v>
       </c>
       <c r="L20">
-        <v>1.065646703410316</v>
+        <v>1.045249282807987</v>
       </c>
       <c r="M20">
-        <v>1.076948123319157</v>
+        <v>1.054686609609826</v>
       </c>
       <c r="N20">
-        <v>1.024215380981711</v>
+        <v>1.017707264940254</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054449120971543</v>
+        <v>1.011107907858701</v>
       </c>
       <c r="D21">
-        <v>1.061958670194081</v>
+        <v>1.033417490919804</v>
       </c>
       <c r="E21">
-        <v>1.061285322253662</v>
+        <v>1.026233314215473</v>
       </c>
       <c r="F21">
-        <v>1.072530962108912</v>
+        <v>1.035382925081661</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052507457444445</v>
+        <v>1.055437200136851</v>
       </c>
       <c r="J21">
-        <v>1.060904802757967</v>
+        <v>1.040148442888435</v>
       </c>
       <c r="K21">
-        <v>1.065444805716813</v>
+        <v>1.047792259941936</v>
       </c>
       <c r="L21">
-        <v>1.064773832068325</v>
+        <v>1.04073416806265</v>
       </c>
       <c r="M21">
-        <v>1.07598024894279</v>
+        <v>1.049723594418531</v>
       </c>
       <c r="N21">
-        <v>1.023931451741739</v>
+        <v>1.016169628586277</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.053687599356303</v>
+        <v>1.006878090565426</v>
       </c>
       <c r="D22">
-        <v>1.061331817319192</v>
+        <v>1.030030260867973</v>
       </c>
       <c r="E22">
-        <v>1.060608417424814</v>
+        <v>1.022685497910861</v>
       </c>
       <c r="F22">
-        <v>1.071795825087621</v>
+        <v>1.031550928377436</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052247303413965</v>
+        <v>1.053682262507742</v>
       </c>
       <c r="J22">
-        <v>1.060387287453033</v>
+        <v>1.037319337826094</v>
       </c>
       <c r="K22">
-        <v>1.064945619843801</v>
+        <v>1.045029397648792</v>
       </c>
       <c r="L22">
-        <v>1.06422487204633</v>
+        <v>1.037820559677575</v>
       </c>
       <c r="M22">
-        <v>1.075371706993879</v>
+        <v>1.046522237952558</v>
       </c>
       <c r="N22">
-        <v>1.023752609248862</v>
+        <v>1.01517594468023</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.054091278867785</v>
+        <v>1.009131182319628</v>
       </c>
       <c r="D23">
-        <v>1.061664108418495</v>
+        <v>1.031834016999913</v>
       </c>
       <c r="E23">
-        <v>1.06096720830518</v>
+        <v>1.024574513665694</v>
       </c>
       <c r="F23">
-        <v>1.072185473382754</v>
+        <v>1.033591246563044</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052385337734792</v>
+        <v>1.054617979468976</v>
       </c>
       <c r="J23">
-        <v>1.060661674111661</v>
+        <v>1.038826522073816</v>
       </c>
       <c r="K23">
-        <v>1.065210297332685</v>
+        <v>1.046501317248829</v>
       </c>
       <c r="L23">
-        <v>1.064515900405485</v>
+        <v>1.039372457908836</v>
       </c>
       <c r="M23">
-        <v>1.075694306606273</v>
+        <v>1.04822728119492</v>
       </c>
       <c r="N23">
-        <v>1.023847447787282</v>
+        <v>1.015705350690842</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.055680917685542</v>
+        <v>1.017769174328427</v>
       </c>
       <c r="D24">
-        <v>1.062972648626164</v>
+        <v>1.038760056116869</v>
       </c>
       <c r="E24">
-        <v>1.062380823391523</v>
+        <v>1.031833534859388</v>
       </c>
       <c r="F24">
-        <v>1.073720850265035</v>
+        <v>1.041431903936251</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052926065842726</v>
+        <v>1.058185112185012</v>
       </c>
       <c r="J24">
-        <v>1.061740976909529</v>
+        <v>1.044599964820886</v>
       </c>
       <c r="K24">
-        <v>1.066251206851139</v>
+        <v>1.052139055264557</v>
       </c>
       <c r="L24">
-        <v>1.065661334638266</v>
+        <v>1.045323765884029</v>
       </c>
       <c r="M24">
-        <v>1.076964349830187</v>
+        <v>1.054768502700635</v>
       </c>
       <c r="N24">
-        <v>1.024220135574663</v>
+        <v>1.017732605646069</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.05752642409519</v>
+        <v>1.027353336246495</v>
       </c>
       <c r="D25">
-        <v>1.064491829350048</v>
+        <v>1.046463701099802</v>
       </c>
       <c r="E25">
-        <v>1.064023487781688</v>
+        <v>1.039919239404155</v>
       </c>
       <c r="F25">
-        <v>1.075505391710808</v>
+        <v>1.050166204454161</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053547955289997</v>
+        <v>1.06209982854854</v>
       </c>
       <c r="J25">
-        <v>1.062991513398818</v>
+        <v>1.050993959857553</v>
       </c>
       <c r="K25">
-        <v>1.067456836846794</v>
+        <v>1.058381138200176</v>
       </c>
       <c r="L25">
-        <v>1.066989882636213</v>
+        <v>1.051927927422157</v>
       </c>
       <c r="M25">
-        <v>1.078438152712101</v>
+        <v>1.062032651303259</v>
       </c>
       <c r="N25">
-        <v>1.024651199336978</v>
+        <v>1.019975878140488</v>
       </c>
     </row>
   </sheetData>
